--- a/叶泠泠/大纲2.xlsx
+++ b/叶泠泠/大纲2.xlsx
@@ -1,65 +1,445 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB79375-A8C0-4682-973B-942EF69ED9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14443" yWindow="3694" windowWidth="15771" windowHeight="12257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15360" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>叶泠泠，六岁，天生精神力强大，现已修炼到精神力外放，堪比魂圣，从炼体，药浴，吃鲸胶，冥想，前些年意外获得生灵之金，现已吸收部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>叶泠泠，六岁，天生精神力强大，现已修炼到精神力外放，堪比魂圣，从炼体，药浴，吃鲸胶，冥想，现已能够轻松进入深度冥想，前些年意外获得生灵之金，现已吸收部分。</t>
+  </si>
+  <si>
+    <t>觉醒武魂，触发黄金级二次觉醒，武魂融合生灵之金，实体化为生灵海棠，品质为神器级别，能够为本人提供三倍的精神力和魂力成长速度，自动缓慢强化肉身，锻炼效果大增，能够自己凝聚魂环魂骨，能够吸收稀有材料进化，能够一定程度上号令其他植物和植物系魂兽。</t>
+  </si>
+  <si>
+    <t>独孤博来送礼祝贺，原来数年前独孤博曾来求叶仁心给儿子救命，当时叶泠泠随口说了将毒素移到魂骨的解决方法，独孤博儿子独孤崖救了回来，自己的中毒问题叶得到了解决，两家关系从此很好。
+独孤博走后，叶泠泠发现独孤博送了青龙月见，告诉母亲这株仙草对独孤博用户很大。</t>
+  </si>
+  <si>
+    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用幽香绮罗和雪色天鹅吻，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（两千年），魂技是治疗，叶泠泠精神力能够外放。</t>
+  </si>
+  <si>
+    <t>进天斗皇家学院</t>
+  </si>
+  <si>
+    <t>排名对战，确认队长</t>
+  </si>
+  <si>
+    <t>狩猎魂环，遭遇暗魔邪神虎，生灵海棠获得吞噬生物生命力的能力，叶泠泠获得时空属性，独孤雁获得力珠，玉天恒获得雷珠，奥斯罗获得暗珠，御风获得风珠。</t>
+  </si>
+  <si>
+    <t>斗魂场斗魂，遇其他学院</t>
+  </si>
+  <si>
+    <t>全大陆斗魂大赛，夺得冠军</t>
+  </si>
+  <si>
+    <t>分开历练，叶泠泠出海</t>
+  </si>
+  <si>
+    <t>海中航行，吃深海沉银，战深海魔鲸王</t>
+  </si>
+  <si>
+    <t>到日月大陆，战邪帝，用生灵之金交易邪帝邪眼魂骨</t>
+  </si>
+  <si>
+    <t>前往未来的星罗大陆，探到龙谷入口</t>
+  </si>
+  <si>
+    <t>回斗罗大陆，叶泠泠将自身修为转移到生灵海棠伪装五十级，集体探龙谷</t>
+  </si>
+  <si>
+    <t>龙谷探险，到达龙墓，获得魂骨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -67,9 +447,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -77,17 +699,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -136,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -171,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -345,36 +1011,101 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="54.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="54.1388888888889" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="1" ht="41.4" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" ht="69" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="82.8" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="82.8" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="41.4" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="27.6" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/叶泠泠/大纲2.xlsx
+++ b/叶泠泠/大纲2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F27901-1A93-4DA1-A460-BF44F4EE4013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13457" yWindow="771" windowWidth="15772" windowHeight="15198" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15360" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>叶泠泠，六岁，天生精神力强大，现已修炼到精神力外放，堪比魂圣，从炼体，药浴，吃鲸胶，冥想，现已能够轻松进入深度冥想，前些年意外获得生灵之金，现已吸收部分。</t>
   </si>
@@ -48,6 +42,18 @@
     <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用幽香绮罗和雪色天鹅吻，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（两千年），魂技是治疗，叶泠泠精神力能够外放。</t>
   </si>
   <si>
+    <t>叶泠泠7岁，千仞雪13岁，取代了雪清河14岁</t>
+  </si>
+  <si>
+    <t>叶仁心被请去天斗皇宫治疗雪明，失败后叫来了叶泠泠，叶泠泠说雪明中毒，皇帝和雪明都怀疑到了雪清河，雪明拥有过目不忘之能，回忆了一年前雪清河的异常，怀疑了雪清河的婢女千仞雪，随后叶泠泠花了一个星期治好了雪明，雪明康复后用小时后雪清河赠送的金纹砚台送给雪清河试探，发现果然如此</t>
+  </si>
+  <si>
+    <t>叶泠泠8岁，千仞雪14岁，下毒二皇子雪明12岁</t>
+  </si>
+  <si>
+    <t>叶泠泠9岁，千仞雪下毒三皇子雪麟11岁</t>
+  </si>
+  <si>
     <t>进天斗皇家学院</t>
   </si>
   <si>
@@ -79,17 +85,19 @@
   </si>
   <si>
     <t>龙谷探险，到达龙墓，获得魂骨</t>
-  </si>
-  <si>
-    <t>进入地心修炼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,30 +106,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,30 +452,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -410,106 +1016,120 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="54.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="54.1388888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="1" ht="41.4" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="2" ht="69" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="3" ht="82.8" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="4" ht="82.8" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" ht="82.8" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="41.4" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="28.3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="27.6" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/叶泠泠/大纲2.xlsx
+++ b/叶泠泠/大纲2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>叶泠泠，六岁，天生精神力强大，现已修炼到精神力外放，堪比魂圣，从炼体，药浴，吃鲸胶，冥想，现已能够轻松进入深度冥想，前些年意外获得生灵之金，现已吸收部分。</t>
   </si>
@@ -45,10 +45,13 @@
     <t>叶泠泠7岁，千仞雪13岁，取代了雪清河14岁</t>
   </si>
   <si>
-    <t>叶仁心被请去天斗皇宫治疗雪明，失败后叫来了叶泠泠，叶泠泠说雪明中毒，皇帝和雪明都怀疑到了雪清河，雪明拥有过目不忘之能，回忆了一年前雪清河的异常，怀疑了雪清河的婢女千仞雪，随后叶泠泠花了一个星期治好了雪明，雪明康复后用小时后雪清河赠送的金纹砚台送给雪清河试探，发现果然如此</t>
+    <t>叶仁心被请去天斗皇宫治疗雪明，失败后叫来了叶泠泠，叶泠泠说雪明中毒，皇帝和雪明都怀疑到了雪清河，雪明拥有过目不忘之能，回忆了一年前雪清河的异常，怀疑了雪清河的婢女千仞雪，随后叶泠泠花了一个星期治好了雪明，雪明康复后用小时后雪清河赠送的金纹砚台送给雪清河试探，发现果然如此，半年后千仞雪撤退</t>
   </si>
   <si>
     <t>叶泠泠8岁，千仞雪14岁，下毒二皇子雪明12岁</t>
+  </si>
+  <si>
+    <t>雪明启动天斗议会组建计划，成员：雪麟，叶泠泠，独孤雁，水冰儿，水月儿，火舞，风笑天</t>
   </si>
   <si>
     <t>叶泠泠9岁，千仞雪下毒三皇子雪麟11岁</t>
@@ -1022,10 +1025,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
@@ -1068,13 +1071,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+    <row r="7" ht="27.6" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1083,12 +1086,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="41.4" spans="1:1">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" ht="41.4" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1118,14 +1121,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="27.6" spans="1:1">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" ht="27.6" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/叶泠泠/大纲2.xlsx
+++ b/叶泠泠/大纲2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="13380"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,52 +27,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>叶泠泠，六岁，天生精神力强大，现已修炼到精神力外放，堪比魂圣，从炼体，药浴，吃鲸胶，冥想，现已能够轻松进入深度冥想，前些年意外获得生灵之金，现已吸收部分。</t>
-  </si>
-  <si>
-    <t>觉醒武魂，触发黄金级二次觉醒，武魂融合生灵之金，实体化为生灵海棠，品质为神器级别，能够为本人提供三倍的精神力和魂力成长速度，自动缓慢强化肉身，锻炼效果大增，能够自己凝聚魂环魂骨，能够吸收稀有材料进化，能够一定程度上号令其他植物和植物系魂兽。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>叶泠泠前世，死于被异物砸中后脑勺</t>
+  </si>
+  <si>
+    <t>叶泠泠，六岁，天生精神力强大，生命力超级旺盛，现已修炼到精神力外放，堪比魂圣，从炼体，药浴，吃鲸胶，冥想，现已能够轻松进入深度冥想，肉体强大堪比魂王</t>
+  </si>
+  <si>
+    <t>觉醒武魂，触发黄金级二次觉醒，武魂融合体内生灵之金，实体化为生灵海棠，品质为神器级别，能够为本人提供三倍的精神力和魂力成长速度，加上深度冥想，总共就是四倍修炼速度，自动缓慢强化肉身，锻炼效果大增，能够自己凝聚魂环魂骨，能够吸收稀有材料进化，能够一定程度上号令其他植物和植物系魂兽。</t>
   </si>
   <si>
     <t>独孤博来送礼祝贺，原来数年前独孤博曾来求叶仁心给儿子救命，当时叶泠泠随口说了将毒素移到魂骨的解决方法，独孤博儿子独孤崖救了回来，自己的中毒问题叶得到了解决，两家关系从此很好。
 独孤博走后，叶泠泠发现独孤博送了青龙月见，告诉母亲这株仙草对独孤博用户很大。</t>
   </si>
   <si>
-    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用幽香绮罗和雪色天鹅吻，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（两千年），魂技是治疗，叶泠泠精神力能够外放。</t>
-  </si>
-  <si>
-    <t>叶泠泠7岁，千仞雪13岁，取代了雪清河14岁</t>
-  </si>
-  <si>
-    <t>叶仁心被请去天斗皇宫治疗雪明，失败后叫来了叶泠泠，叶泠泠说雪明中毒，皇帝和雪明都怀疑到了雪清河，雪明拥有过目不忘之能，回忆了一年前雪清河的异常，怀疑了雪清河的婢女千仞雪，随后叶泠泠花了一个星期治好了雪明，雪明康复后用小时后雪清河赠送的金纹砚台送给雪清河试探，发现果然如此，半年后千仞雪撤退</t>
-  </si>
-  <si>
-    <t>叶泠泠8岁，千仞雪14岁，下毒二皇子雪明12岁</t>
-  </si>
-  <si>
-    <t>雪明启动天斗议会组建计划，成员：雪麟，叶泠泠，独孤雁，水冰儿，水月儿，火舞，风笑天</t>
-  </si>
-  <si>
-    <t>叶泠泠9岁，千仞雪下毒三皇子雪麟11岁</t>
-  </si>
-  <si>
-    <t>进天斗皇家学院</t>
-  </si>
-  <si>
-    <t>排名对战，确认队长</t>
-  </si>
-  <si>
-    <t>狩猎魂环，遭遇暗魔邪神虎，生灵海棠获得吞噬生物生命力的能力，叶泠泠获得时空属性，独孤雁获得力珠，玉天恒获得雷珠，奥斯罗获得暗珠，御风获得风珠。</t>
-  </si>
-  <si>
-    <t>斗魂场斗魂，遇其他学院</t>
-  </si>
-  <si>
-    <t>全大陆斗魂大赛，夺得冠军</t>
-  </si>
-  <si>
-    <t>分开历练，叶泠泠出海</t>
+    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用青龙月见，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（万年），魂技是被动增强魂力，叶泠泠精神力能够外放。</t>
+  </si>
+  <si>
+    <t>叶泠泠8岁，千仞雪14岁，下毒二皇子雪明12岁。
+叶仁心被请去天斗皇宫治疗雪明，失败后叫来了叶泠泠，叶泠泠说雪明中毒，皇帝和雪明都怀疑到了雪清河，雪明拥有过目不忘之能，回忆了一年前雪清河的异常，怀疑了雪清河的婢女千仞雪，随后叶泠泠花了一个星期治好了雪明，雪明康复后用小时后雪清河赠送的金纹砚台送给雪清河试探，发现果然如此，半年后千仞雪撤退。</t>
+  </si>
+  <si>
+    <t>过了一年，雪明启动天斗议会组建计划，成员：雪麟11岁，叶泠泠9岁，独孤雁12岁，水冰儿11岁，水月儿12岁，火舞15岁，风笑天16岁，导师：独孤博。</t>
+  </si>
+  <si>
+    <t>组队完成，比武叶泠泠获胜，为队长，开始修炼，叶泠泠用武魂为大家加速修炼5成。</t>
+  </si>
+  <si>
+    <t>前往斗魂场斗魂。</t>
+  </si>
+  <si>
+    <t>狩猎魂环，遭遇暗魔邪神虎，生灵海棠获得吞噬生物生命力的能力，叶泠泠获得时空属性，独孤雁获得力珠，风笑天获得风珠，雷珠和暗珠保留。</t>
+  </si>
+  <si>
+    <t>独孤博分享仙草</t>
+  </si>
+  <si>
+    <t>内部组都斗魂胜利</t>
+  </si>
+  <si>
+    <t>暂时分开历练。</t>
+  </si>
+  <si>
+    <t>前往未来的星罗大陆，探到龙谷入口</t>
+  </si>
+  <si>
+    <t>前往龙谷历险。</t>
   </si>
   <si>
     <t>海中航行，吃深海沉银，战深海魔鲸王</t>
@@ -81,13 +82,7 @@
     <t>到日月大陆，战邪帝，用生灵之金交易邪帝邪眼魂骨</t>
   </si>
   <si>
-    <t>前往未来的星罗大陆，探到龙谷入口</t>
-  </si>
-  <si>
-    <t>回斗罗大陆，叶泠泠将自身修为转移到生灵海棠伪装五十级，集体探龙谷</t>
-  </si>
-  <si>
-    <t>龙谷探险，到达龙墓，获得魂骨</t>
+    <t>前往飓风峡谷，风笑天获得风神传承，火舞获得火神传承，水冰儿获得水神传承，水月儿获得河神传承，独孤雁获得情绪之神传承，雪麟获得光明之神传承。</t>
   </si>
 </sst>
 </file>
@@ -1025,25 +1020,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="54.1388888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="69.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.4" spans="1:1">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="69" spans="1:1">
+    <row r="2" ht="41.4" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,82 +1053,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
+    <row r="5" ht="82.8" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="82.8" spans="1:2">
+    <row r="6" ht="96.6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" ht="41.4" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="27.6" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="8" ht="27.6" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="41.4" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="41.4" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="41.4" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="27.6" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/叶泠泠/大纲2.xlsx
+++ b/叶泠泠/大纲2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="15528" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>叶泠泠前世，死于被异物砸中后脑勺</t>
   </si>
@@ -42,7 +42,7 @@
 独孤博走后，叶泠泠发现独孤博送了青龙月见，告诉母亲这株仙草对独孤博用户很大。</t>
   </si>
   <si>
-    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用青龙月见，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（万年），魂技是被动增强魂力，叶泠泠精神力能够外放。</t>
+    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用青龙月见，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（万年），魂技是被动增强魂力，叶泠泠精神力能够外放，再吸收混元仙草给自己凝聚了7个两万年的外附魂骨。</t>
   </si>
   <si>
     <t>叶泠泠8岁，千仞雪14岁，下毒二皇子雪明12岁。
@@ -55,7 +55,10 @@
     <t>组队完成，比武叶泠泠获胜，为队长，开始修炼，叶泠泠用武魂为大家加速修炼5成。</t>
   </si>
   <si>
-    <t>前往斗魂场斗魂。</t>
+    <t>叶泠泠12岁，斗魂，检验修炼成果</t>
+  </si>
+  <si>
+    <t>叶泠泠找到万载玄冰窟，将极冰神晶全部吸收，剩下水冰儿得到万载玄冰髓</t>
   </si>
   <si>
     <t>狩猎魂环，遭遇暗魔邪神虎，生灵海棠获得吞噬生物生命力的能力，叶泠泠获得时空属性，独孤雁获得力珠，风笑天获得风珠，雷珠和暗珠保留。</t>
@@ -64,9 +67,6 @@
     <t>独孤博分享仙草</t>
   </si>
   <si>
-    <t>内部组都斗魂胜利</t>
-  </si>
-  <si>
     <t>暂时分开历练。</t>
   </si>
   <si>
@@ -76,13 +76,34 @@
     <t>前往龙谷历险。</t>
   </si>
   <si>
-    <t>海中航行，吃深海沉银，战深海魔鲸王</t>
-  </si>
-  <si>
-    <t>到日月大陆，战邪帝，用生灵之金交易邪帝邪眼魂骨</t>
-  </si>
-  <si>
-    <t>前往飓风峡谷，风笑天获得风神传承，火舞获得火神传承，水冰儿获得水神传承，水月儿获得河神传承，独孤雁获得情绪之神传承，雪麟获得光明之神传承。</t>
+    <t>叶泠泠13岁，本命魂环。</t>
+  </si>
+  <si>
+    <t>叶泠泠13岁，海中航行，吃深海沉银，战深海魔鲸王</t>
+  </si>
+  <si>
+    <t>叶泠泠13岁，到日月大陆，战邪帝，用生灵之金交易邪帝邪眼魂骨</t>
+  </si>
+  <si>
+    <t>叶泠泠14岁，前往飓风峡谷，风笑天获得风神传承。</t>
+  </si>
+  <si>
+    <t>叶泠泠15岁，唐三进入史莱克。</t>
+  </si>
+  <si>
+    <t>寻找神位传承，海神传承。</t>
+  </si>
+  <si>
+    <t>叶泠泠15岁，前往极北之地，水冰儿获得冰神之心，冰神传承。</t>
+  </si>
+  <si>
+    <t>叶泠泠17岁，前往海神岛，水月儿获得水神传承。</t>
+  </si>
+  <si>
+    <t>海神岛修炼到最后，火舞获得火神传承，独孤雁获得情绪之神传承，雪麟获得光明之神传承。</t>
+  </si>
+  <si>
+    <t>返回斗罗大陆</t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1053,7 +1074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="82.8" spans="1:1">
+    <row r="5" ht="96.6" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1078,12 +1099,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="41.4" spans="1:1">
+    <row r="10" ht="27.6" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" ht="41.4" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,9 +1139,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="41.4" spans="1:1">
+    <row r="18" ht="27.6" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="27.6" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" ht="27.6" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/叶泠泠/大纲2.xlsx
+++ b/叶泠泠/大纲2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72781BD-A854-42D7-8248-CA7BCDF67F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13535C-78F4-496A-AA1F-679F96DBDD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9669" yWindow="806" windowWidth="15771" windowHeight="15197" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
 叶仁心被请去天斗皇宫治疗雪明，失败后叫来了叶泠泠，叶泠泠说雪明中毒，皇帝和雪明都怀疑到了雪清河，雪明拥有过目不忘之能，回忆了一年前雪清河的异常，怀疑了雪清河的婢女千仞雪，随后叶泠泠花了一个星期治好了雪明，雪明康复后用小时后雪清河赠送的金纹砚台送给雪清河试探，发现果然如此，半年后千仞雪撤退。</t>
   </si>
   <si>
-    <t>过了一年，雪明启动天斗议会组建计划，成员：雪麟11岁，叶泠泠9岁，独孤雁12岁，水冰儿11岁，水月儿12岁，火舞15岁，风笑天16岁，导师：独孤博。</t>
-  </si>
-  <si>
     <t>组队完成，比武叶泠泠获胜，为队长，开始修炼，叶泠泠用武魂为大家加速修炼5成。</t>
   </si>
   <si>
@@ -112,6 +109,10 @@
   </si>
   <si>
     <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用青龙月见，叶泠泠服用了望穿秋水露和星罗灵珠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过了一年，雪明启动天斗议会组建计划，成员：雪麟11岁，叶泠泠9岁，独孤雁12岁，水冰儿9岁，水月儿11岁，火舞11岁，风笑天16岁，导师：独孤博。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -471,7 +472,7 @@
     </row>
     <row r="3" spans="1:1" ht="99" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="84.9" x14ac:dyDescent="0.35">
@@ -481,7 +482,7 @@
     </row>
     <row r="5" spans="1:1" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="99" x14ac:dyDescent="0.35">
@@ -490,98 +491,98 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
